--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wafa_\Documents\MeftahiWafa_4_22072021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B30707-F94B-4B42-8076-20C0B571576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D6BF91-1D3E-4553-A203-04E7D8C7B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Catégorie</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Le "title" est l’une des balises les plus importantes pour le référencement naturel car il le booste, il augmente notre trafic, et incite au clic</t>
-  </si>
-  <si>
-    <t>Il faut Mettre dans cette balise le mot clé le plus important sur le quel on veut être référencé. Ca aidera les moteurs de recherche à nous référencé sur ces recherches. (70 caractères max).</t>
   </si>
   <si>
     <t>SEO - Référencement naturel</t>
@@ -249,9 +246,6 @@
     <t>La taille originale des photos doit correspondre à leur taille d’affichage sur la page. Donc des images petites pour des vignettes ; et des images grosse pour des backgrounds de sections.</t>
   </si>
   <si>
-    <t xml:space="preserve">page 2 = éléments mal intégrés et décalés </t>
-  </si>
-  <si>
     <t>Le menu est quasiment entièrement tronqué au bord de la fenêtre. Le contenu caché est pénalisé par Google. Le formulaire est mal intégré, tout ça fait que la navigation est difficile à pour les visiteurs</t>
   </si>
   <si>
@@ -324,6 +318,28 @@
   <si>
     <t xml:space="preserve">La flèche pour remonter en haut de la page était en opacity 0. Elle est passe en opacity 1 et avec des couleurs visibles
 Suppression d’un élément invisible qui était en display none mais qui n’était pas dans le HTML (btn-down) </t>
+  </si>
+  <si>
+    <t>page 2 = Menu mal intégré</t>
+  </si>
+  <si>
+    <t>Il faut Mettre dans cette balise le mot clé le plus important sur le quel on veut être référencé. Ca aidera les moteurs de recherche à nous référencé sur ces recherches. (65 caractères max).</t>
+  </si>
+  <si>
+    <t>Attribut "Aria" manquant</t>
+  </si>
+  <si>
+    <t>Il n' a aucun attribut "Aria", ce qui ne permets pas de cibler tout les visiteurs notamment les aveugles et malvoyants, qui ne peuvent pas définir une légende non-visible associée à un élément HTML dont le sens est transmis uniquement par le visuel. Cet attribut permet aux développeurs d'indiquer une alternative textuelle à ces contrôles visuels, qui sera lue par les technologies d'assistance des aveugles et malvoyants.</t>
+  </si>
+  <si>
+    <t>Site : https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/ARIA_Techniques/Using_the_aria-label_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisez Aria pour consolider et renforcer votre menu de navigation pour sa compréhension par les technologies d'assistance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter "Aria" sur la barre de navigation et bouton de contact  </t>
   </si>
 </sst>
 </file>
@@ -634,12 +650,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,6 +666,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -931,362 +947,368 @@
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="54" customHeight="1" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="63" customHeight="1" thickBot="1">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="62.25" customHeight="1" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="66.75" customHeight="1" thickBot="1">
       <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="41.25" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="66" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="D14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="62.25" customHeight="1" thickBot="1">
+      <c r="A15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="43.5" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>91</v>
+      <c r="A21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1294,29 +1316,29 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>91</v>
+      <c r="C23" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1324,14 +1346,14 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="57" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>92</v>
+      <c r="A24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1339,16 +1361,24 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="C26" s="2"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1557,7 +1587,12 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75" customHeight="1"/>
+    <row r="56" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
     <row r="57" spans="3:7" ht="15.75" customHeight="1"/>
     <row r="58" spans="3:7" ht="15.75" customHeight="1"/>
     <row r="59" spans="3:7" ht="15.75" customHeight="1"/>
@@ -2362,32 +2397,32 @@
     <row r="858" spans="23:24" ht="15.75" customHeight="1"/>
     <row r="859" spans="23:24" ht="15.75" customHeight="1"/>
     <row r="860" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W860" s="35"/>
-      <c r="X860" s="36"/>
+      <c r="W860" s="33"/>
+      <c r="X860" s="34"/>
     </row>
     <row r="861" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W861" s="35"/>
-      <c r="X861" s="36"/>
+      <c r="W861" s="33"/>
+      <c r="X861" s="34"/>
     </row>
     <row r="862" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W862" s="35"/>
-      <c r="X862" s="36"/>
+      <c r="W862" s="33"/>
+      <c r="X862" s="34"/>
     </row>
     <row r="863" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W863" s="35"/>
-      <c r="X863" s="36"/>
+      <c r="W863" s="33"/>
+      <c r="X863" s="34"/>
     </row>
     <row r="864" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W864" s="35"/>
-      <c r="X864" s="36"/>
+      <c r="W864" s="33"/>
+      <c r="X864" s="34"/>
     </row>
     <row r="865" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W865" s="36"/>
-      <c r="X865" s="36"/>
+      <c r="W865" s="34"/>
+      <c r="X865" s="34"/>
     </row>
     <row r="866" spans="23:24" ht="15.75" customHeight="1">
-      <c r="W866" s="36"/>
-      <c r="X866" s="36"/>
+      <c r="W866" s="34"/>
+      <c r="X866" s="34"/>
     </row>
     <row r="867" spans="23:24" ht="15.75" customHeight="1"/>
     <row r="868" spans="23:24" ht="15.75" customHeight="1"/>
@@ -2524,7 +2559,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:C18"/>
+    <mergeCell ref="A18:C19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="Cours OC - Optimisez le contenu de vos pages" xr:uid="{33D8BA3F-D2BD-4346-B4D4-FED54B274A30}"/>
@@ -2534,17 +2569,18 @@
     <hyperlink ref="F9" r:id="rId5" display="Cours OC - Allégez les pages de votre site" xr:uid="{D05F483D-003E-4382-98D1-2D348D9488DD}"/>
     <hyperlink ref="F10" r:id="rId6" display="Stylistme.com" xr:uid="{BBFBCEB8-C34B-4C17-89F4-695F5F0604E7}"/>
     <hyperlink ref="F11" r:id="rId7" display="Smartkeyword.io" xr:uid="{632AF8B5-A4FD-4841-9FDB-999DD205ED8B}"/>
-    <hyperlink ref="F12" r:id="rId8" display="La fabrique du Net" xr:uid="{D45AA577-E795-4E51-8612-CB16F12C413A}"/>
-    <hyperlink ref="F13" r:id="rId9" display="3octets.fr" xr:uid="{C082F91F-D80A-4548-9FFD-0596A4B85EAA}"/>
-    <hyperlink ref="F15" r:id="rId10" display="Cours OC - Analysez le fonctionnement de Google" xr:uid="{4CC1BEA4-E6FE-4F5E-B682-DD904C62DB69}"/>
-    <hyperlink ref="A19" r:id="rId11" location="couleur" xr:uid="{CB273F55-54FA-4136-9FC9-BA911CDBB665}"/>
-    <hyperlink ref="A20" r:id="rId12" location="la_visibilité" xr:uid="{4D22C89B-9DE4-4205-A723-84731EF6FC3A}"/>
-    <hyperlink ref="A21" r:id="rId13" location="le_focus" xr:uid="{6ADF5F58-DE57-4D78-955E-C739017C0334}"/>
-    <hyperlink ref="A22" r:id="rId14" location="les_équivalents_textuels" xr:uid="{FB329F5C-CBED-4F80-8510-EDDFE1763D01}"/>
-    <hyperlink ref="A23" r:id="rId15" location="la_gestion_des_états" xr:uid="{1AFB48EB-2E8E-4CA9-96C6-A488D31A5CA5}"/>
-    <hyperlink ref="A24" r:id="rId16" location="principales_recommandations" xr:uid="{6E9CE78C-14A9-47B8-9226-45AF55FEB902}"/>
+    <hyperlink ref="F13" r:id="rId8" display="La fabrique du Net" xr:uid="{D45AA577-E795-4E51-8612-CB16F12C413A}"/>
+    <hyperlink ref="F14" r:id="rId9" display="3octets.fr" xr:uid="{C082F91F-D80A-4548-9FFD-0596A4B85EAA}"/>
+    <hyperlink ref="F16" r:id="rId10" display="Cours OC - Analysez le fonctionnement de Google" xr:uid="{4CC1BEA4-E6FE-4F5E-B682-DD904C62DB69}"/>
+    <hyperlink ref="A20" r:id="rId11" location="couleur" xr:uid="{CB273F55-54FA-4136-9FC9-BA911CDBB665}"/>
+    <hyperlink ref="A21" r:id="rId12" location="la_visibilité" xr:uid="{4D22C89B-9DE4-4205-A723-84731EF6FC3A}"/>
+    <hyperlink ref="A22" r:id="rId13" location="le_focus" xr:uid="{6ADF5F58-DE57-4D78-955E-C739017C0334}"/>
+    <hyperlink ref="A23" r:id="rId14" location="les_équivalents_textuels" xr:uid="{FB329F5C-CBED-4F80-8510-EDDFE1763D01}"/>
+    <hyperlink ref="A24" r:id="rId15" location="la_gestion_des_états" xr:uid="{1AFB48EB-2E8E-4CA9-96C6-A488D31A5CA5}"/>
+    <hyperlink ref="A25" r:id="rId16" location="principales_recommandations" xr:uid="{6E9CE78C-14A9-47B8-9226-45AF55FEB902}"/>
+    <hyperlink ref="F12" r:id="rId17" display="La fabrique du Net" xr:uid="{F61665B0-BBEE-4D92-9ADF-BCD528BB2C7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId17"/>
+  <pageSetup orientation="landscape" r:id="rId18"/>
 </worksheet>
 </file>